--- a/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\weijingHot\trunk_et_weijing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA45746-28F3-4F7B-A874-863317C50406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D9C99-4756-431A-92F7-3C34AD4A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1875" yWindow="1800" windowWidth="20415" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -49,14 +49,63 @@
     <t>string</t>
   </si>
   <si>
+    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Robot</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LocalDungeon3</t>
+  </si>
+  <si>
+    <t>LocalDungeon4</t>
+  </si>
+  <si>
+    <t>ReCharge</t>
+  </si>
+  <si>
+    <t>DBCache</t>
+  </si>
+  <si>
+    <t>Map101</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Battle</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>野外戰鬥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>外围活动</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>Server</t>
-  </si>
-  <si>
-    <t>BanHao</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Center</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +196,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,22 +504,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:F12"/>
+  <dimension ref="C3:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.375" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="3" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -480,8 +532,11 @@
       <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
@@ -494,8 +549,11 @@
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
@@ -508,8 +566,11 @@
       <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
@@ -517,13 +578,16 @@
         <v>1</v>
       </c>
       <c r="E6" s="5">
-        <v>20102</v>
+        <v>10302</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
@@ -531,13 +595,16 @@
         <v>1</v>
       </c>
       <c r="E7" s="5">
-        <v>20103</v>
+        <v>10303</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C8" s="7">
         <v>3</v>
       </c>
@@ -545,13 +612,16 @@
         <v>1</v>
       </c>
       <c r="E8" s="5">
-        <v>20104</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10304</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C9" s="7">
         <v>4</v>
       </c>
@@ -559,13 +629,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="5">
-        <v>20105</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" s="6" customFormat="1" x14ac:dyDescent="0.15">
+        <v>10305</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C10" s="7">
         <v>5</v>
       </c>
@@ -573,38 +646,138 @@
         <v>1</v>
       </c>
       <c r="E10" s="5">
-        <v>20106</v>
-      </c>
-      <c r="F10" s="7" t="s">
+        <v>10306</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="7">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>10307</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="7">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>10308</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="7">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10309</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C11" s="3">
-        <v>201</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>20107</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10310</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="7">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C12" s="3">
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10311</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="3">
         <v>202</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>20108</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>10307</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>203</v>
+      </c>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="5">
+        <v>10308</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7D9C99-4756-431A-92F7-3C34AD4A4867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015423-74C0-4761-B942-3341D0AC746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1875" yWindow="1800" windowWidth="20415" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4410" yWindow="1980" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -49,63 +49,11 @@
     <t>string</t>
   </si>
   <si>
-    <t>Center</t>
+    <t>BanHao</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Robot</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDungeon1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDungeon2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>LocalDungeon3</t>
-  </si>
-  <si>
-    <t>LocalDungeon4</t>
-  </si>
-  <si>
-    <t>ReCharge</t>
-  </si>
-  <si>
-    <t>DBCache</t>
-  </si>
-  <si>
-    <t>Map101</t>
-  </si>
-  <si>
-    <t>Gate</t>
-  </si>
-  <si>
-    <t>Battle</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>野外戰鬥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>外围活动</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Server</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>进程名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -176,11 +124,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -192,13 +137,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,279 +443,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:H17"/>
+  <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C3" s="4" t="s">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C4" s="4" t="s">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="5">
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
-        <v>10302</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>18</v>
+      <c r="E6" s="4">
+        <v>20307</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="3">
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
-        <v>10303</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="7">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10304</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="7">
-        <v>4</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10305</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="7">
-        <v>5</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10306</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="7">
-        <v>6</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10307</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="7">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5">
-        <v>10308</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="7">
-        <v>8</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
-        <v>10309</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="7">
-        <v>9</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10310</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="7">
-        <v>10</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5">
-        <v>10311</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="3">
-        <v>202</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>10307</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C17" s="3">
-        <v>203</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>10308</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="E7" s="4">
+        <v>20308</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
+++ b/Excel/StartConfig/BanHao/StartProcessConfig@s.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\BanHao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84015423-74C0-4761-B942-3341D0AC746E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361DE45A-217F-4387-B3E7-888809DEE418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1980" windowWidth="22365" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="1095" windowWidth="22365" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -446,7 +446,7 @@
   <dimension ref="C3:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -508,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4">
-        <v>20307</v>
+        <v>20207</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="4">
-        <v>20308</v>
+        <v>20208</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
